--- a/dataFiles/test/bateau/bateau_3_MIL.xlsx
+++ b/dataFiles/test/bateau/bateau_3_MIL.xlsx
@@ -145,28 +145,28 @@
     <t>(795, 415, 41, 144)</t>
   </si>
   <si>
-    <t>(207, 88, 22)</t>
-  </si>
-  <si>
-    <t>(27, 248, 251)</t>
-  </si>
-  <si>
-    <t>(171, 101, 156)</t>
-  </si>
-  <si>
-    <t>(220, 130, 85)</t>
-  </si>
-  <si>
-    <t>(129, 28, 195)</t>
-  </si>
-  <si>
-    <t>(128, 109, 173)</t>
-  </si>
-  <si>
-    <t>(67, 145, 79)</t>
-  </si>
-  <si>
-    <t>(170, 34, 231)</t>
+    <t>(149, 251, 178)</t>
+  </si>
+  <si>
+    <t>(64, 189, 4)</t>
+  </si>
+  <si>
+    <t>(167, 70, 157)</t>
+  </si>
+  <si>
+    <t>(121, 90, 205)</t>
+  </si>
+  <si>
+    <t>(206, 166, 203)</t>
+  </si>
+  <si>
+    <t>(114, 151, 138)</t>
+  </si>
+  <si>
+    <t>(188, 177, 202)</t>
+  </si>
+  <si>
+    <t>(247, 170, 39)</t>
   </si>
 </sst>
 </file>
@@ -615,7 +615,7 @@
         <v>43</v>
       </c>
       <c r="M2">
-        <v>19.3</v>
+        <v>19.06</v>
       </c>
       <c r="P2" t="b">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>44</v>
       </c>
       <c r="M3">
-        <v>19.52</v>
+        <v>19.24</v>
       </c>
       <c r="P3" t="b">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>45</v>
       </c>
       <c r="M4">
-        <v>19.36</v>
+        <v>19.34</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>46</v>
       </c>
       <c r="M5">
-        <v>20.34</v>
+        <v>20.26</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>47</v>
       </c>
       <c r="M6">
-        <v>19.41</v>
+        <v>19.38</v>
       </c>
       <c r="P6" t="b">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>49</v>
       </c>
       <c r="M8">
-        <v>19.61</v>
+        <v>19.55</v>
       </c>
       <c r="P8" t="b">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>50</v>
       </c>
       <c r="M9">
-        <v>19.82</v>
+        <v>19.74</v>
       </c>
       <c r="P9" t="b">
         <v>0</v>
